--- a/Logs/Conescapan/cv4/vuelta4corre.xlsx
+++ b/Logs/Conescapan/cv4/vuelta4corre.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71F889A-07D4-489C-9707-2AD701207C3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827BFE92-AADC-4CD2-8B41-2AB43EC60219}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Latitudvirtual</t>
+  </si>
+  <si>
+    <t>longitudvirtual</t>
+  </si>
+  <si>
+    <t>DRPREG0</t>
+  </si>
+  <si>
+    <t>DRPREG1</t>
+  </si>
+  <si>
+    <t>DRPREG2</t>
+  </si>
+  <si>
+    <t>DRPREG3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,8 +80,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,6 +107,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -130,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -147,6 +215,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6512,7 +6585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B129" sqref="A100:B129"/>
     </sheetView>
   </sheetViews>
@@ -7659,63 +7732,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F49F6C3-91E9-4745-BF7A-6568EC707225}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
-        <v>-79.531696999999994</v>
-      </c>
-      <c r="B1" s="3">
-        <v>9.0234179999999995</v>
-      </c>
-      <c r="C1" s="4">
-        <v>9.02341729734</v>
-      </c>
-      <c r="D1" s="5">
-        <v>-79.531697704300001</v>
-      </c>
-      <c r="E1" s="4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8">
-        <v>32</v>
-      </c>
-      <c r="G1" s="8">
-        <v>23</v>
-      </c>
-      <c r="H1" s="5">
-        <v>0</v>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>-79.531694000000002</v>
+        <v>-79.531696999999994</v>
       </c>
       <c r="B2" s="3">
-        <v>9.0234199999999998</v>
-      </c>
-      <c r="C2" s="6">
+        <v>9.0234179999999995</v>
+      </c>
+      <c r="C2" s="4">
         <v>9.02341729734</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>-79.531697704300001</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>32</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>23</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7726,22 +7799,22 @@
       <c r="B3" s="3">
         <v>9.0234199999999998</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>9.02341729734</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>-79.531697704300001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>32</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>23</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7752,698 +7825,698 @@
       <c r="B4" s="3">
         <v>9.0234199999999998</v>
       </c>
-      <c r="C4" s="6">
-        <v>9.0234139111099996</v>
-      </c>
-      <c r="D4" s="7">
-        <v>-79.531695233600004</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C4" s="4">
+        <v>9.02341729734</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-79.531697704300001</v>
+      </c>
+      <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
-        <v>31</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4" s="8">
+        <v>32</v>
+      </c>
+      <c r="G4" s="8">
         <v>23</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>-79.531690999999995</v>
+        <v>-79.531694000000002</v>
       </c>
       <c r="B5" s="3">
-        <v>9.0234170000000002</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9.0234061863499999</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-79.531689597600007</v>
-      </c>
-      <c r="E5" s="4">
+        <v>9.0234199999999998</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9.0234139111099996</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-79.531695233600004</v>
+      </c>
+      <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
-        <v>30</v>
-      </c>
-      <c r="G5" s="8">
-        <v>24</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="F5" s="9">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>-79.531683000000001</v>
+        <v>-79.531690999999995</v>
       </c>
       <c r="B6" s="3">
-        <v>9.0234109999999994</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9.0233966802500003</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-79.531682661800005</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>29</v>
-      </c>
-      <c r="G6" s="9">
+        <v>9.0234170000000002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.0234061863499999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-79.531689597600007</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>30</v>
+      </c>
+      <c r="G6" s="8">
         <v>24</v>
       </c>
-      <c r="H6" s="7">
-        <v>2</v>
+      <c r="H6" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>-79.531673999999995</v>
+        <v>-79.531683000000001</v>
       </c>
       <c r="B7" s="3">
-        <v>9.0234030000000001</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9.0233874738300006</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-79.531675944699998</v>
-      </c>
-      <c r="E7" s="4">
+        <v>9.0234109999999994</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9.0233966802500003</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-79.531682661800005</v>
+      </c>
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="8">
-        <v>28</v>
-      </c>
-      <c r="G7" s="8">
-        <v>25</v>
-      </c>
-      <c r="H7" s="5">
-        <v>3</v>
+      <c r="F7" s="9">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9">
+        <v>24</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>-79.531666999999999</v>
+        <v>-79.531673999999995</v>
       </c>
       <c r="B8" s="3">
-        <v>9.0233939999999997</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9.0233774383600007</v>
-      </c>
-      <c r="D8" s="7">
-        <v>-79.531668622799998</v>
-      </c>
-      <c r="E8" s="6">
+        <v>9.0234030000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.0233874738300006</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-79.531675944699998</v>
+      </c>
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="9">
-        <v>26</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="8">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8">
         <v>25</v>
       </c>
-      <c r="H8" s="7">
-        <v>4</v>
+      <c r="H8" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>-79.531661</v>
+        <v>-79.531666999999999</v>
       </c>
       <c r="B9" s="3">
-        <v>9.0233830000000008</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9.0233674028900008</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-79.531661300799996</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
+        <v>9.0233939999999997</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9.0233774383600007</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-79.531668622799998</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>26</v>
+      </c>
+      <c r="G9" s="9">
         <v>25</v>
       </c>
-      <c r="G9" s="8">
-        <v>25</v>
-      </c>
-      <c r="H9" s="5">
-        <v>5</v>
+      <c r="H9" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>-79.531655000000001</v>
+        <v>-79.531661</v>
       </c>
       <c r="B10" s="3">
-        <v>9.0233720000000002</v>
-      </c>
-      <c r="C10" s="6">
-        <v>9.0233573674100001</v>
-      </c>
-      <c r="D10" s="7">
-        <v>-79.531653978799994</v>
-      </c>
-      <c r="E10" s="6">
+        <v>9.0233830000000008</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.0233674028900008</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-79.531661300799996</v>
+      </c>
+      <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="9">
-        <v>24</v>
-      </c>
-      <c r="G10" s="9">
-        <v>26</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
+      <c r="F10" s="8">
+        <v>25</v>
+      </c>
+      <c r="G10" s="8">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>-79.531649000000002</v>
+        <v>-79.531655000000001</v>
       </c>
       <c r="B11" s="3">
-        <v>9.0233609999999995</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9.0233468557999998</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-79.531646309400003</v>
-      </c>
-      <c r="E11" s="4">
+        <v>9.0233720000000002</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9.0233573674100001</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-79.531653978799994</v>
+      </c>
+      <c r="E11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="8">
-        <v>22</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="9">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9">
         <v>26</v>
       </c>
-      <c r="H11" s="5">
-        <v>8</v>
+      <c r="H11" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>-79.531642000000005</v>
+        <v>-79.531649000000002</v>
       </c>
       <c r="B12" s="3">
-        <v>9.0233500000000006</v>
-      </c>
-      <c r="C12" s="6">
-        <v>9.0233376493800002</v>
-      </c>
-      <c r="D12" s="7">
-        <v>-79.531639592299996</v>
-      </c>
-      <c r="E12" s="6">
+        <v>9.0233609999999995</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.0233468557999998</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-79.531646309400003</v>
+      </c>
+      <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="9">
-        <v>21</v>
-      </c>
-      <c r="G12" s="9">
-        <v>27</v>
-      </c>
-      <c r="H12" s="7">
-        <v>9</v>
+      <c r="F12" s="8">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8">
+        <v>26</v>
+      </c>
+      <c r="H12" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>-79.531634999999994</v>
+        <v>-79.531642000000005</v>
       </c>
       <c r="B13" s="3">
-        <v>9.0233410000000003</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.0233279668200002</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-79.531632527900001</v>
-      </c>
-      <c r="E13" s="4">
+        <v>9.0233500000000006</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9.0233376493800002</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-79.531639592299996</v>
+      </c>
+      <c r="E13" s="6">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
-        <v>20</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="9">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9">
         <v>27</v>
       </c>
-      <c r="H13" s="5">
-        <v>10</v>
+      <c r="H13" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>-79.531627</v>
+        <v>-79.531634999999994</v>
       </c>
       <c r="B14" s="3">
-        <v>9.0233319999999999</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9.0233162032299994</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-79.531623945000007</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9">
-        <v>18</v>
-      </c>
-      <c r="G14" s="9">
-        <v>28</v>
-      </c>
-      <c r="H14" s="7">
-        <v>12</v>
+        <v>9.0233410000000003</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.0233279668200002</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-79.531632527900001</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8">
+        <v>27</v>
+      </c>
+      <c r="H14" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>-79.531616</v>
+        <v>-79.531627</v>
       </c>
       <c r="B15" s="3">
-        <v>9.0233220000000003</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.0233055683799996</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-79.531616185700003</v>
-      </c>
-      <c r="E15" s="4">
+        <v>9.0233319999999999</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.0233162032299994</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-79.531623945000007</v>
+      </c>
+      <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="8">
-        <v>17</v>
-      </c>
-      <c r="G15" s="8">
-        <v>29</v>
-      </c>
-      <c r="H15" s="5">
-        <v>13</v>
+      <c r="F15" s="9">
+        <v>18</v>
+      </c>
+      <c r="G15" s="9">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>-79.531605999999996</v>
+        <v>-79.531616</v>
       </c>
       <c r="B16" s="3">
-        <v>9.0233129999999999</v>
-      </c>
-      <c r="C16" s="6">
-        <v>9.0232938047900006</v>
-      </c>
-      <c r="D16" s="7">
-        <v>-79.531607602899996</v>
-      </c>
-      <c r="E16" s="6">
+        <v>9.0233220000000003</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.0233055683799996</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-79.531616185700003</v>
+      </c>
+      <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="9">
-        <v>15</v>
-      </c>
-      <c r="G16" s="9">
-        <v>30</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
+      <c r="F16" s="8">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8">
+        <v>29</v>
+      </c>
+      <c r="H16" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>-79.531594999999996</v>
+        <v>-79.531605999999996</v>
       </c>
       <c r="B17" s="3">
-        <v>9.0233030000000003</v>
-      </c>
-      <c r="C17" s="4">
-        <v>9.0232839457799994</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-79.531600409700005</v>
-      </c>
-      <c r="E17" s="4">
+        <v>9.0233129999999999</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9.0232938047900006</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-79.531607602899996</v>
+      </c>
+      <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="8">
-        <v>14</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="9">
+        <v>15</v>
+      </c>
+      <c r="G17" s="9">
         <v>30</v>
       </c>
-      <c r="H17" s="5">
-        <v>16</v>
+      <c r="H17" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>-79.531587999999999</v>
+        <v>-79.531594999999996</v>
       </c>
       <c r="B18" s="3">
-        <v>9.0232930000000007</v>
-      </c>
-      <c r="C18" s="6">
-        <v>9.0232734341600001</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-79.531592740299999</v>
-      </c>
-      <c r="E18" s="6">
+        <v>9.0233030000000003</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.0232839457799994</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-79.531600409700005</v>
+      </c>
+      <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" s="9">
-        <v>12</v>
-      </c>
-      <c r="G18" s="9">
-        <v>31</v>
-      </c>
-      <c r="H18" s="7">
-        <v>17</v>
+      <c r="F18" s="8">
+        <v>14</v>
+      </c>
+      <c r="G18" s="8">
+        <v>30</v>
+      </c>
+      <c r="H18" s="5">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>-79.531581000000003</v>
+        <v>-79.531587999999999</v>
       </c>
       <c r="B19" s="3">
-        <v>9.023282</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9.0232633986900002</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-79.531585418299997</v>
-      </c>
-      <c r="E19" s="4">
+        <v>9.0232930000000007</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9.0232734341600001</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-79.531592740299999</v>
+      </c>
+      <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="8">
-        <v>11</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="9">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9">
         <v>31</v>
       </c>
-      <c r="H19" s="5">
-        <v>18</v>
+      <c r="H19" s="7">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>-79.531575000000004</v>
+        <v>-79.531581000000003</v>
       </c>
       <c r="B20" s="3">
-        <v>9.0232709999999994</v>
-      </c>
-      <c r="C20" s="6">
-        <v>9.0232517583299998</v>
-      </c>
-      <c r="D20" s="7">
-        <v>-79.531576925400003</v>
-      </c>
-      <c r="E20" s="6">
+        <v>9.023282</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.0232633986900002</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-79.531585418299997</v>
+      </c>
+      <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="9">
-        <v>9</v>
-      </c>
-      <c r="G20" s="9">
-        <v>32</v>
-      </c>
-      <c r="H20" s="7">
-        <v>20</v>
+      <c r="F20" s="8">
+        <v>11</v>
+      </c>
+      <c r="G20" s="8">
+        <v>31</v>
+      </c>
+      <c r="H20" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>-79.531566999999995</v>
+        <v>-79.531575000000004</v>
       </c>
       <c r="B21" s="3">
-        <v>9.0232589999999995</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9.0232402944200008</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-79.531568561200004</v>
-      </c>
-      <c r="E21" s="4">
+        <v>9.0232709999999994</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9.0232517583299998</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-79.531576925400003</v>
+      </c>
+      <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="8">
-        <v>8</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="9">
+        <v>9</v>
+      </c>
+      <c r="G21" s="9">
         <v>32</v>
       </c>
-      <c r="H21" s="5">
-        <v>21</v>
+      <c r="H21" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>-79.531558000000004</v>
+        <v>-79.531566999999995</v>
       </c>
       <c r="B22" s="3">
-        <v>9.0232480000000006</v>
-      </c>
-      <c r="C22" s="6">
-        <v>9.0232281779200001</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-79.531559720900006</v>
-      </c>
-      <c r="E22" s="6">
+        <v>9.0232589999999995</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9.0232402944200008</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-79.531568561200004</v>
+      </c>
+      <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22" s="9">
-        <v>6</v>
-      </c>
-      <c r="G22" s="9">
-        <v>33</v>
-      </c>
-      <c r="H22" s="7">
-        <v>23</v>
+      <c r="F22" s="8">
+        <v>8</v>
+      </c>
+      <c r="G22" s="8">
+        <v>32</v>
+      </c>
+      <c r="H22" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>-79.531548999999998</v>
+        <v>-79.531558000000004</v>
       </c>
       <c r="B23" s="3">
-        <v>9.0232360000000007</v>
-      </c>
-      <c r="C23" s="4">
-        <v>9.02321736661</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-79.531551832900007</v>
-      </c>
-      <c r="E23" s="4">
+        <v>9.0232480000000006</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9.0232281779200001</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-79.531559720900006</v>
+      </c>
+      <c r="E23" s="6">
         <v>1</v>
       </c>
-      <c r="F23" s="8">
-        <v>5</v>
-      </c>
-      <c r="G23" s="8">
-        <v>34</v>
-      </c>
-      <c r="H23" s="5">
-        <v>24</v>
+      <c r="F23" s="9">
+        <v>6</v>
+      </c>
+      <c r="G23" s="9">
+        <v>33</v>
+      </c>
+      <c r="H23" s="7">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>-79.531540000000007</v>
+        <v>-79.531548999999998</v>
       </c>
       <c r="B24" s="3">
-        <v>9.0232259999999993</v>
-      </c>
-      <c r="C24" s="6">
-        <v>9.0232056030199992</v>
-      </c>
-      <c r="D24" s="7">
-        <v>-79.5315432501</v>
-      </c>
-      <c r="E24" s="6">
+        <v>9.0232360000000007</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9.02321736661</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-79.531551832900007</v>
+      </c>
+      <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="9">
-        <v>3</v>
-      </c>
-      <c r="G24" s="9">
-        <v>35</v>
-      </c>
-      <c r="H24" s="7">
-        <v>26</v>
+      <c r="F24" s="8">
+        <v>5</v>
+      </c>
+      <c r="G24" s="8">
+        <v>34</v>
+      </c>
+      <c r="H24" s="5">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>-79.531529000000006</v>
+        <v>-79.531540000000007</v>
       </c>
       <c r="B25" s="3">
-        <v>9.0232159999999997</v>
-      </c>
-      <c r="C25" s="4">
-        <v>9.0231954443200006</v>
-      </c>
-      <c r="D25" s="5">
-        <v>-79.5315358382</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="8">
-        <v>2</v>
-      </c>
-      <c r="G25" s="8">
+        <v>9.0232259999999993</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9.0232056030199992</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-79.5315432501</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3</v>
+      </c>
+      <c r="G25" s="9">
         <v>35</v>
       </c>
-      <c r="H25" s="5">
-        <v>27</v>
+      <c r="H25" s="7">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>-79.53152</v>
+        <v>-79.531529000000006</v>
       </c>
       <c r="B26" s="3">
-        <v>9.0232069999999993</v>
-      </c>
-      <c r="C26" s="6">
-        <v>9.0231841568700002</v>
-      </c>
-      <c r="D26" s="7">
-        <v>-79.531527602699995</v>
-      </c>
-      <c r="E26" s="6">
+        <v>9.0232159999999997</v>
+      </c>
+      <c r="C26" s="4">
+        <v>9.0231954443200006</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-79.5315358382</v>
+      </c>
+      <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>36</v>
-      </c>
-      <c r="H26" s="7">
-        <v>29</v>
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8">
+        <v>35</v>
+      </c>
+      <c r="H26" s="5">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>-79.531509999999997</v>
+        <v>-79.53152</v>
       </c>
       <c r="B27" s="3">
-        <v>9.0231969999999997</v>
-      </c>
-      <c r="C27" s="4">
-        <v>9.0231746507700006</v>
-      </c>
-      <c r="D27" s="5">
-        <v>-79.531520666999995</v>
-      </c>
-      <c r="E27" s="4">
+        <v>9.0232069999999993</v>
+      </c>
+      <c r="C27" s="6">
+        <v>9.0231841568700002</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-79.531527602699995</v>
+      </c>
+      <c r="E27" s="6">
         <v>2</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="9">
         <v>0</v>
       </c>
-      <c r="G27" s="8">
-        <v>37</v>
-      </c>
-      <c r="H27" s="5">
-        <v>30</v>
+      <c r="G27" s="9">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>-79.531501000000006</v>
+        <v>-79.531509999999997</v>
       </c>
       <c r="B28" s="3">
-        <v>9.0231890000000003</v>
-      </c>
-      <c r="C28" s="6">
-        <v>9.0231652678999996</v>
-      </c>
-      <c r="D28" s="7">
-        <v>-79.531513821199994</v>
-      </c>
-      <c r="E28" s="6">
+        <v>9.0231969999999997</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9.0231746507700006</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-79.531520666999995</v>
+      </c>
+      <c r="E28" s="4">
         <v>2</v>
       </c>
-      <c r="F28" s="9">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
         <v>37</v>
       </c>
-      <c r="H28" s="7">
-        <v>31</v>
+      <c r="H28" s="5">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>-79.531495000000007</v>
+        <v>-79.531501000000006</v>
       </c>
       <c r="B29" s="3">
-        <v>9.0231790000000007</v>
-      </c>
-      <c r="C29" s="4">
-        <v>9.0231602235500006</v>
-      </c>
-      <c r="D29" s="5">
-        <v>-79.531510140799995</v>
-      </c>
-      <c r="E29" s="4">
+        <v>9.0231890000000003</v>
+      </c>
+      <c r="C29" s="6">
+        <v>9.0231652678999996</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-79.531513821199994</v>
+      </c>
+      <c r="E29" s="6">
         <v>2</v>
       </c>
-      <c r="F29" s="8">
-        <v>2</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
         <v>37</v>
       </c>
-      <c r="H29" s="5">
-        <v>32</v>
+      <c r="H29" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>-79.531493999999995</v>
+        <v>-79.531495000000007</v>
       </c>
       <c r="B30" s="3">
-        <v>9.0231720000000006</v>
-      </c>
-      <c r="C30" s="6">
-        <v>9.0231589183400001</v>
-      </c>
-      <c r="D30" s="7">
-        <v>-79.531509188499996</v>
-      </c>
-      <c r="E30" s="6">
+        <v>9.0231790000000007</v>
+      </c>
+      <c r="C30" s="4">
+        <v>9.0231602235500006</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-79.531510140799995</v>
+      </c>
+      <c r="E30" s="4">
         <v>2</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>2</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>37</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="5">
         <v>32</v>
       </c>
     </row>
@@ -8452,48 +8525,75 @@
         <v>-79.531493999999995</v>
       </c>
       <c r="B31" s="3">
+        <v>9.0231720000000006</v>
+      </c>
+      <c r="C31" s="6">
+        <v>9.0231589183400001</v>
+      </c>
+      <c r="D31" s="7">
+        <v>-79.531509188499996</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2</v>
+      </c>
+      <c r="G31" s="9">
+        <v>37</v>
+      </c>
+      <c r="H31" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>-79.531493999999995</v>
+      </c>
+      <c r="B32" s="3">
         <v>9.0231700000000004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A861ADB-80A0-40CA-BD4B-19E25BD46E4B}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D43"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
-        <v>-79.531493999999995</v>
-      </c>
-      <c r="B1" s="3">
-        <v>9.0231709999999996</v>
-      </c>
-      <c r="C1" s="4">
-        <v>9.0231873053800005</v>
-      </c>
-      <c r="D1" s="5">
-        <v>-79.531510637799997</v>
-      </c>
-      <c r="E1" s="4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8">
-        <v>2</v>
-      </c>
-      <c r="G1" s="8">
-        <v>37</v>
-      </c>
-      <c r="H1" s="5">
-        <v>32</v>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8501,24 +8601,24 @@
         <v>-79.531493999999995</v>
       </c>
       <c r="B2" s="3">
-        <v>9.0231720000000006</v>
-      </c>
-      <c r="C2" s="6">
+        <v>9.0231709999999996</v>
+      </c>
+      <c r="C2" s="4">
         <v>9.0231873053800005</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>-79.531510637799997</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>2</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>37</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>32</v>
       </c>
     </row>
@@ -8529,22 +8629,22 @@
       <c r="B3" s="3">
         <v>9.0231720000000006</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>9.0231873053800005</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>-79.531510637799997</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>37</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>32</v>
       </c>
     </row>
@@ -8555,932 +8655,932 @@
       <c r="B4" s="3">
         <v>9.0231720000000006</v>
       </c>
-      <c r="C4" s="6">
-        <v>9.0231873487499996</v>
-      </c>
-      <c r="D4" s="7">
-        <v>-79.531510597899995</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C4" s="4">
+        <v>9.0231873053800005</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-79.531510637799997</v>
+      </c>
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>37</v>
       </c>
-      <c r="H4" s="7">
-        <v>31</v>
+      <c r="H4" s="5">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>-79.531495000000007</v>
+        <v>-79.531493999999995</v>
       </c>
       <c r="B5" s="3">
-        <v>9.0231729999999999</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9.02318314577</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-79.531514464300002</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
+        <v>9.0231720000000006</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9.0231873487499996</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-79.531510597899995</v>
+      </c>
+      <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
         <v>37</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>-79.531497999999999</v>
+        <v>-79.531495000000007</v>
       </c>
       <c r="B6" s="3">
-        <v>9.0231680000000001</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9.0231732450000006</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-79.531523572200001</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
+        <v>9.0231729999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.02318314577</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-79.531514464300002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" s="9">
-        <v>35</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6" s="8">
+        <v>37</v>
+      </c>
+      <c r="H6" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>-79.531507000000005</v>
+        <v>-79.531497999999999</v>
       </c>
       <c r="B7" s="3">
-        <v>9.0231580000000005</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9.0231628025999999</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-79.531533178299995</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
+        <v>9.0231680000000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9.0231732450000006</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-79.531523572200001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
         <v>2</v>
       </c>
-      <c r="G7" s="8">
-        <v>34</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="9">
+        <v>35</v>
+      </c>
+      <c r="H7" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>-79.531515999999996</v>
+        <v>-79.531507000000005</v>
       </c>
       <c r="B8" s="3">
-        <v>9.0231469999999998</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9.0231533133500008</v>
-      </c>
-      <c r="D8" s="7">
-        <v>-79.531541907600001</v>
-      </c>
-      <c r="E8" s="6">
+        <v>9.0231580000000005</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.0231628025999999</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-79.531533178299995</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="F8" s="9">
-        <v>2</v>
-      </c>
-      <c r="G8" s="9">
-        <v>33</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="8">
+        <v>34</v>
+      </c>
+      <c r="H8" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>-79.531521999999995</v>
+        <v>-79.531515999999996</v>
       </c>
       <c r="B9" s="3">
-        <v>9.0231349999999999</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9.0231428709399992</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-79.531551513799997</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="F9" s="8">
-        <v>3</v>
-      </c>
-      <c r="G9" s="8">
-        <v>32</v>
-      </c>
-      <c r="H9" s="5">
+        <v>9.0231469999999998</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9.0231533133500008</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-79.531541907600001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>33</v>
+      </c>
+      <c r="H9" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>-79.531531000000001</v>
+        <v>-79.531521999999995</v>
       </c>
       <c r="B10" s="3">
-        <v>9.0231239999999993</v>
-      </c>
-      <c r="C10" s="6">
-        <v>9.0231344649699992</v>
-      </c>
-      <c r="D10" s="7">
-        <v>-79.531559246599997</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5</v>
-      </c>
-      <c r="F10" s="9">
+        <v>9.0231349999999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.0231428709399992</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-79.531551513799997</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="8">
         <v>3</v>
       </c>
-      <c r="G10" s="9">
-        <v>31</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="8">
+        <v>32</v>
+      </c>
+      <c r="H10" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>-79.531537</v>
+        <v>-79.531531000000001</v>
       </c>
       <c r="B11" s="3">
-        <v>9.0231139999999996</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9.0231240225700002</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-79.531568852700005</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6</v>
-      </c>
-      <c r="F11" s="8">
+        <v>9.0231239999999993</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9.0231344649699992</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-79.531559246599997</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="8">
-        <v>30</v>
-      </c>
-      <c r="H11" s="5">
-        <v>30</v>
+      <c r="G11" s="9">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>-79.531546000000006</v>
+        <v>-79.531537</v>
       </c>
       <c r="B12" s="3">
-        <v>9.0231030000000008</v>
-      </c>
-      <c r="C12" s="6">
-        <v>9.0231151617100007</v>
-      </c>
-      <c r="D12" s="7">
-        <v>-79.531577003899997</v>
-      </c>
-      <c r="E12" s="6">
-        <v>8</v>
-      </c>
-      <c r="F12" s="9">
+        <v>9.0231139999999996</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.0231240225700002</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-79.531568852700005</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8">
         <v>3</v>
       </c>
-      <c r="G12" s="9">
-        <v>29</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="8">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>-79.531554</v>
+        <v>-79.531546000000006</v>
       </c>
       <c r="B13" s="3">
-        <v>9.0230940000000004</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.0231047626799992</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-79.531586570200005</v>
-      </c>
-      <c r="E13" s="4">
-        <v>9</v>
-      </c>
-      <c r="F13" s="8">
+        <v>9.0231030000000008</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9.0231151617100007</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-79.531577003899997</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8</v>
+      </c>
+      <c r="F13" s="9">
         <v>3</v>
       </c>
-      <c r="G13" s="8">
-        <v>27</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="9">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>-79.531564000000003</v>
+        <v>-79.531554</v>
       </c>
       <c r="B14" s="3">
-        <v>9.0230840000000008</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9.0230949486699998</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-79.531595598199999</v>
-      </c>
-      <c r="E14" s="6">
-        <v>11</v>
-      </c>
-      <c r="F14" s="9">
+        <v>9.0230940000000004</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.0231047626799992</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-79.531586570200005</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9</v>
+      </c>
+      <c r="F14" s="8">
         <v>3</v>
       </c>
-      <c r="G14" s="9">
-        <v>26</v>
-      </c>
-      <c r="H14" s="7">
-        <v>29</v>
+      <c r="G14" s="8">
+        <v>27</v>
+      </c>
+      <c r="H14" s="5">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>-79.531575000000004</v>
+        <v>-79.531564000000003</v>
       </c>
       <c r="B15" s="3">
-        <v>9.0230759999999997</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.0230840947500006</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-79.531605582899999</v>
-      </c>
-      <c r="E15" s="4">
-        <v>12</v>
-      </c>
-      <c r="F15" s="8">
-        <v>2</v>
-      </c>
-      <c r="G15" s="8">
-        <v>24</v>
-      </c>
-      <c r="H15" s="5">
-        <v>28</v>
+        <v>9.0230840000000008</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.0230949486699998</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-79.531595598199999</v>
+      </c>
+      <c r="E15" s="6">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>-79.531587000000002</v>
+        <v>-79.531575000000004</v>
       </c>
       <c r="B16" s="3">
-        <v>9.0230669999999993</v>
-      </c>
-      <c r="C16" s="6">
-        <v>9.0230737391000009</v>
-      </c>
-      <c r="D16" s="7">
-        <v>-79.531615109300006</v>
-      </c>
-      <c r="E16" s="6">
-        <v>14</v>
-      </c>
-      <c r="F16" s="9">
+        <v>9.0230759999999997</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.0230840947500006</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-79.531605582899999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8">
         <v>2</v>
       </c>
-      <c r="G16" s="9">
-        <v>23</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G16" s="8">
+        <v>24</v>
+      </c>
+      <c r="H16" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>-79.531598000000002</v>
+        <v>-79.531587000000002</v>
       </c>
       <c r="B17" s="3">
-        <v>9.0230580000000007</v>
-      </c>
-      <c r="C17" s="4">
-        <v>9.0230627984399998</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-79.531625173799995</v>
-      </c>
-      <c r="E17" s="4">
-        <v>16</v>
-      </c>
-      <c r="F17" s="8">
+        <v>9.0230669999999993</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9.0230737391000009</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-79.531615109300006</v>
+      </c>
+      <c r="E17" s="6">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9">
         <v>2</v>
       </c>
-      <c r="G17" s="8">
-        <v>22</v>
-      </c>
-      <c r="H17" s="5">
-        <v>27</v>
+      <c r="G17" s="9">
+        <v>23</v>
+      </c>
+      <c r="H17" s="7">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>-79.531608000000006</v>
+        <v>-79.531598000000002</v>
       </c>
       <c r="B18" s="3">
-        <v>9.023047</v>
-      </c>
-      <c r="C18" s="6">
-        <v>9.0230533525599999</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-79.5316338632</v>
-      </c>
-      <c r="E18" s="6">
-        <v>17</v>
-      </c>
-      <c r="F18" s="9">
+        <v>9.0230580000000007</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.0230627984399998</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-79.531625173799995</v>
+      </c>
+      <c r="E18" s="4">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8">
         <v>2</v>
       </c>
-      <c r="G18" s="9">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="8">
+        <v>22</v>
+      </c>
+      <c r="H18" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>-79.531615000000002</v>
+        <v>-79.531608000000006</v>
       </c>
       <c r="B19" s="3">
-        <v>9.0230359999999994</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9.0230434084199995</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-79.531643011</v>
-      </c>
-      <c r="E19" s="4">
-        <v>18</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3</v>
-      </c>
-      <c r="G19" s="8">
-        <v>19</v>
-      </c>
-      <c r="H19" s="5">
+        <v>9.023047</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9.0230533525599999</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-79.5316338632</v>
+      </c>
+      <c r="E19" s="6">
+        <v>17</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>21</v>
+      </c>
+      <c r="H19" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>-79.531622999999996</v>
+        <v>-79.531615000000002</v>
       </c>
       <c r="B20" s="3">
-        <v>9.0230250000000005</v>
-      </c>
-      <c r="C20" s="6">
-        <v>9.0230329660200006</v>
-      </c>
-      <c r="D20" s="7">
-        <v>-79.531652617099994</v>
-      </c>
-      <c r="E20" s="6">
-        <v>20</v>
-      </c>
-      <c r="F20" s="9">
+        <v>9.0230359999999994</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.0230434084199995</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-79.531643011</v>
+      </c>
+      <c r="E20" s="4">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8">
         <v>3</v>
       </c>
-      <c r="G20" s="9">
-        <v>18</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="G20" s="8">
+        <v>19</v>
+      </c>
+      <c r="H20" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>-79.531632000000002</v>
+        <v>-79.531622999999996</v>
       </c>
       <c r="B21" s="3">
-        <v>9.0230139999999999</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9.0230235201400006</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-79.531661306499998</v>
-      </c>
-      <c r="E21" s="4">
-        <v>21</v>
-      </c>
-      <c r="F21" s="8">
+        <v>9.0230250000000005</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9.0230329660200006</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-79.531652617099994</v>
+      </c>
+      <c r="E21" s="6">
+        <v>20</v>
+      </c>
+      <c r="F21" s="9">
         <v>3</v>
       </c>
-      <c r="G21" s="8">
-        <v>17</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="G21" s="9">
+        <v>18</v>
+      </c>
+      <c r="H21" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>-79.531638999999998</v>
+        <v>-79.531632000000002</v>
       </c>
       <c r="B22" s="3">
-        <v>9.0230029999999992</v>
-      </c>
-      <c r="C22" s="6">
-        <v>9.0230136627600004</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-79.531670374499996</v>
-      </c>
-      <c r="E22" s="6">
-        <v>23</v>
-      </c>
-      <c r="F22" s="9">
+        <v>9.0230139999999999</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9.0230235201400006</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-79.531661306499998</v>
+      </c>
+      <c r="E22" s="4">
+        <v>21</v>
+      </c>
+      <c r="F22" s="8">
         <v>3</v>
       </c>
-      <c r="G22" s="9">
-        <v>16</v>
-      </c>
-      <c r="H22" s="7">
-        <v>26</v>
+      <c r="G22" s="8">
+        <v>17</v>
+      </c>
+      <c r="H22" s="5">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>-79.531649000000002</v>
+        <v>-79.531638999999998</v>
       </c>
       <c r="B23" s="3">
-        <v>9.0229940000000006</v>
-      </c>
-      <c r="C23" s="4">
-        <v>9.0230038053699992</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-79.531679442500007</v>
-      </c>
-      <c r="E23" s="4">
-        <v>24</v>
-      </c>
-      <c r="F23" s="8">
+        <v>9.0230029999999992</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9.0230136627600004</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-79.531670374499996</v>
+      </c>
+      <c r="E23" s="6">
+        <v>23</v>
+      </c>
+      <c r="F23" s="9">
         <v>3</v>
       </c>
-      <c r="G23" s="8">
-        <v>14</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="G23" s="9">
+        <v>16</v>
+      </c>
+      <c r="H23" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>-79.531659000000005</v>
+        <v>-79.531649000000002</v>
       </c>
       <c r="B24" s="3">
-        <v>9.0229850000000003</v>
-      </c>
-      <c r="C24" s="6">
-        <v>9.0229949878800007</v>
-      </c>
-      <c r="D24" s="7">
-        <v>-79.531687553799998</v>
-      </c>
-      <c r="E24" s="6">
-        <v>25</v>
-      </c>
-      <c r="F24" s="9">
-        <v>2</v>
-      </c>
-      <c r="G24" s="9">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>25</v>
+        <v>9.0229940000000006</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9.0230038053699992</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-79.531679442500007</v>
+      </c>
+      <c r="E24" s="4">
+        <v>24</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8">
+        <v>14</v>
+      </c>
+      <c r="H24" s="5">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>-79.531667999999996</v>
+        <v>-79.531659000000005</v>
       </c>
       <c r="B25" s="3">
-        <v>9.0229769999999991</v>
-      </c>
-      <c r="C25" s="4">
-        <v>9.0229851305000004</v>
-      </c>
-      <c r="D25" s="5">
-        <v>-79.531696621799995</v>
-      </c>
-      <c r="E25" s="4">
-        <v>27</v>
-      </c>
-      <c r="F25" s="8">
+        <v>9.0229850000000003</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9.0229949878800007</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-79.531687553799998</v>
+      </c>
+      <c r="E25" s="6">
+        <v>25</v>
+      </c>
+      <c r="F25" s="9">
         <v>2</v>
       </c>
-      <c r="G25" s="8">
-        <v>12</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="G25" s="9">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>-79.531677999999999</v>
+        <v>-79.531667999999996</v>
       </c>
       <c r="B26" s="3">
-        <v>9.0229680000000005</v>
-      </c>
-      <c r="C26" s="6">
-        <v>9.0229738217000008</v>
-      </c>
-      <c r="D26" s="7">
-        <v>-79.531707024900001</v>
-      </c>
-      <c r="E26" s="6">
-        <v>29</v>
-      </c>
-      <c r="F26" s="9">
+        <v>9.0229769999999991</v>
+      </c>
+      <c r="C26" s="4">
+        <v>9.0229851305000004</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-79.531696621799995</v>
+      </c>
+      <c r="E26" s="4">
+        <v>27</v>
+      </c>
+      <c r="F26" s="8">
         <v>2</v>
       </c>
-      <c r="G26" s="9">
-        <v>10</v>
-      </c>
-      <c r="H26" s="7">
-        <v>24</v>
+      <c r="G26" s="8">
+        <v>12</v>
+      </c>
+      <c r="H26" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>-79.531692000000007</v>
+        <v>-79.531677999999999</v>
       </c>
       <c r="B27" s="3">
-        <v>9.0229599999999994</v>
-      </c>
-      <c r="C27" s="4">
-        <v>9.0229635528000003</v>
-      </c>
-      <c r="D27" s="5">
-        <v>-79.531716471500005</v>
-      </c>
-      <c r="E27" s="4">
-        <v>30</v>
-      </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8">
-        <v>9</v>
-      </c>
-      <c r="H27" s="5">
-        <v>23</v>
+        <v>9.0229680000000005</v>
+      </c>
+      <c r="C27" s="6">
+        <v>9.0229738217000008</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-79.531707024900001</v>
+      </c>
+      <c r="E27" s="6">
+        <v>29</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2</v>
+      </c>
+      <c r="G27" s="9">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>-79.531705000000002</v>
+        <v>-79.531692000000007</v>
       </c>
       <c r="B28" s="3">
-        <v>9.0229529999999993</v>
-      </c>
-      <c r="C28" s="6">
-        <v>9.0229531971500005</v>
-      </c>
-      <c r="D28" s="7">
-        <v>-79.531725997799995</v>
-      </c>
-      <c r="E28" s="6">
-        <v>32</v>
-      </c>
-      <c r="F28" s="9">
+        <v>9.0229599999999994</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9.0229635528000003</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-79.531716471500005</v>
+      </c>
+      <c r="E28" s="4">
+        <v>30</v>
+      </c>
+      <c r="F28" s="8">
         <v>1</v>
       </c>
-      <c r="G28" s="9">
-        <v>7</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="G28" s="8">
+        <v>9</v>
+      </c>
+      <c r="H28" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>-79.531716000000003</v>
+        <v>-79.531705000000002</v>
       </c>
       <c r="B29" s="3">
-        <v>9.0229440000000007</v>
-      </c>
-      <c r="C29" s="4">
-        <v>9.0229427981200008</v>
-      </c>
-      <c r="D29" s="5">
-        <v>-79.531735564000002</v>
-      </c>
-      <c r="E29" s="4">
-        <v>33</v>
-      </c>
-      <c r="F29" s="8">
+        <v>9.0229529999999993</v>
+      </c>
+      <c r="C29" s="6">
+        <v>9.0229531971500005</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-79.531725997799995</v>
+      </c>
+      <c r="E29" s="6">
+        <v>32</v>
+      </c>
+      <c r="F29" s="9">
         <v>1</v>
       </c>
-      <c r="G29" s="8">
-        <v>6</v>
-      </c>
-      <c r="H29" s="5">
-        <v>22</v>
+      <c r="G29" s="9">
+        <v>7</v>
+      </c>
+      <c r="H29" s="7">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>-79.531726000000006</v>
+        <v>-79.531716000000003</v>
       </c>
       <c r="B30" s="3">
-        <v>9.0229339999999993</v>
-      </c>
-      <c r="C30" s="6">
-        <v>9.0229323991000001</v>
-      </c>
-      <c r="D30" s="7">
-        <v>-79.531745130299996</v>
-      </c>
-      <c r="E30" s="6">
-        <v>35</v>
-      </c>
-      <c r="F30" s="9">
+        <v>9.0229440000000007</v>
+      </c>
+      <c r="C30" s="4">
+        <v>9.0229427981200008</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-79.531735564000002</v>
+      </c>
+      <c r="E30" s="4">
+        <v>33</v>
+      </c>
+      <c r="F30" s="8">
         <v>1</v>
       </c>
-      <c r="G30" s="9">
-        <v>5</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="G30" s="8">
+        <v>6</v>
+      </c>
+      <c r="H30" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>-79.531735999999995</v>
+        <v>-79.531726000000006</v>
       </c>
       <c r="B31" s="3">
-        <v>9.0229239999999997</v>
-      </c>
-      <c r="C31" s="4">
-        <v>9.0229224983300007</v>
-      </c>
-      <c r="D31" s="5">
-        <v>-79.531754238199994</v>
-      </c>
-      <c r="E31" s="4">
-        <v>36</v>
-      </c>
-      <c r="F31" s="8">
+        <v>9.0229339999999993</v>
+      </c>
+      <c r="C31" s="6">
+        <v>9.0229323991000001</v>
+      </c>
+      <c r="D31" s="7">
+        <v>-79.531745130299996</v>
+      </c>
+      <c r="E31" s="6">
+        <v>35</v>
+      </c>
+      <c r="F31" s="9">
         <v>1</v>
       </c>
-      <c r="G31" s="8">
-        <v>3</v>
-      </c>
-      <c r="H31" s="5">
-        <v>21</v>
+      <c r="G31" s="9">
+        <v>5</v>
+      </c>
+      <c r="H31" s="7">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>-79.531745000000001</v>
+        <v>-79.531735999999995</v>
       </c>
       <c r="B32" s="3">
-        <v>9.0229140000000001</v>
-      </c>
-      <c r="C32" s="6">
-        <v>9.0229131392100008</v>
-      </c>
-      <c r="D32" s="7">
-        <v>-79.531762847799996</v>
-      </c>
-      <c r="E32" s="6">
-        <v>38</v>
-      </c>
-      <c r="F32" s="9">
+        <v>9.0229239999999997</v>
+      </c>
+      <c r="C32" s="4">
+        <v>9.0229224983300007</v>
+      </c>
+      <c r="D32" s="5">
+        <v>-79.531754238199994</v>
+      </c>
+      <c r="E32" s="4">
+        <v>36</v>
+      </c>
+      <c r="F32" s="8">
         <v>1</v>
       </c>
-      <c r="G32" s="9">
-        <v>2</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="G32" s="8">
+        <v>3</v>
+      </c>
+      <c r="H32" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>-79.531754000000006</v>
+        <v>-79.531745000000001</v>
       </c>
       <c r="B33" s="3">
-        <v>9.0229049999999997</v>
-      </c>
-      <c r="C33" s="4">
-        <v>9.0229032384399996</v>
-      </c>
-      <c r="D33" s="5">
-        <v>-79.531771955599993</v>
-      </c>
-      <c r="E33" s="4">
-        <v>39</v>
-      </c>
-      <c r="F33" s="8">
+        <v>9.0229140000000001</v>
+      </c>
+      <c r="C33" s="6">
+        <v>9.0229131392100008</v>
+      </c>
+      <c r="D33" s="7">
+        <v>-79.531762847799996</v>
+      </c>
+      <c r="E33" s="6">
+        <v>38</v>
+      </c>
+      <c r="F33" s="9">
         <v>1</v>
       </c>
-      <c r="G33" s="8">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="G33" s="9">
+        <v>2</v>
+      </c>
+      <c r="H33" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>-79.531762999999998</v>
+        <v>-79.531754000000006</v>
       </c>
       <c r="B34" s="3">
-        <v>9.0228950000000001</v>
-      </c>
-      <c r="C34" s="6">
-        <v>9.0228933810599994</v>
-      </c>
-      <c r="D34" s="7">
-        <v>-79.531781023600004</v>
-      </c>
-      <c r="E34" s="6">
-        <v>41</v>
-      </c>
-      <c r="F34" s="9">
+        <v>9.0229049999999997</v>
+      </c>
+      <c r="C34" s="4">
+        <v>9.0229032384399996</v>
+      </c>
+      <c r="D34" s="5">
+        <v>-79.531771955599993</v>
+      </c>
+      <c r="E34" s="4">
+        <v>39</v>
+      </c>
+      <c r="F34" s="8">
         <v>1</v>
       </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>20</v>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>-79.531773000000001</v>
+        <v>-79.531762999999998</v>
       </c>
       <c r="B35" s="3">
-        <v>9.0228859999999997</v>
-      </c>
-      <c r="C35" s="4">
-        <v>9.0228846069500008</v>
-      </c>
-      <c r="D35" s="5">
-        <v>-79.531789095099995</v>
-      </c>
-      <c r="E35" s="4">
-        <v>42</v>
-      </c>
-      <c r="F35" s="8">
+        <v>9.0228950000000001</v>
+      </c>
+      <c r="C35" s="6">
+        <v>9.0228933810599994</v>
+      </c>
+      <c r="D35" s="7">
+        <v>-79.531781023600004</v>
+      </c>
+      <c r="E35" s="6">
+        <v>41</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
         <v>0</v>
       </c>
-      <c r="G35" s="8">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="H35" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>-79.531783000000004</v>
+        <v>-79.531773000000001</v>
       </c>
       <c r="B36" s="3">
-        <v>9.0228789999999996</v>
-      </c>
-      <c r="C36" s="6">
-        <v>9.0228779560200003</v>
-      </c>
-      <c r="D36" s="7">
-        <v>-79.531795213400002</v>
-      </c>
-      <c r="E36" s="6">
-        <v>43</v>
-      </c>
-      <c r="F36" s="9">
+        <v>9.0228859999999997</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9.0228846069500008</v>
+      </c>
+      <c r="D36" s="5">
+        <v>-79.531789095099995</v>
+      </c>
+      <c r="E36" s="4">
+        <v>42</v>
+      </c>
+      <c r="F36" s="8">
         <v>0</v>
       </c>
-      <c r="G36" s="9">
-        <v>2</v>
-      </c>
-      <c r="H36" s="7">
-        <v>19</v>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>-79.531791999999996</v>
+        <v>-79.531783000000004</v>
       </c>
       <c r="B37" s="3">
-        <v>9.0228750000000009</v>
-      </c>
-      <c r="C37" s="4">
-        <v>9.0228723016199996</v>
-      </c>
-      <c r="D37" s="5">
-        <v>-79.531800414900005</v>
-      </c>
-      <c r="E37" s="4">
-        <v>44</v>
-      </c>
-      <c r="F37" s="8">
+        <v>9.0228789999999996</v>
+      </c>
+      <c r="C37" s="6">
+        <v>9.0228779560200003</v>
+      </c>
+      <c r="D37" s="7">
+        <v>-79.531795213400002</v>
+      </c>
+      <c r="E37" s="6">
+        <v>43</v>
+      </c>
+      <c r="F37" s="9">
         <v>0</v>
       </c>
-      <c r="G37" s="8">
-        <v>3</v>
-      </c>
-      <c r="H37" s="5">
+      <c r="G37" s="9">
+        <v>2</v>
+      </c>
+      <c r="H37" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>-79.531799000000007</v>
+        <v>-79.531791999999996</v>
       </c>
       <c r="B38" s="3">
-        <v>9.0228710000000003</v>
-      </c>
-      <c r="C38" s="6">
-        <v>9.0228713051000007</v>
-      </c>
-      <c r="D38" s="7">
-        <v>-79.531801331699995</v>
-      </c>
-      <c r="E38" s="6">
+        <v>9.0228750000000009</v>
+      </c>
+      <c r="C38" s="4">
+        <v>9.0228723016199996</v>
+      </c>
+      <c r="D38" s="5">
+        <v>-79.531800414900005</v>
+      </c>
+      <c r="E38" s="4">
         <v>44</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>0</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>3</v>
       </c>
-      <c r="H38" s="7">
-        <v>18</v>
+      <c r="H38" s="5">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>-79.531801000000002</v>
+        <v>-79.531799000000007</v>
       </c>
       <c r="B39" s="3">
         <v>9.0228710000000003</v>
       </c>
-      <c r="C39" s="4">
-        <v>9.0228707634600003</v>
-      </c>
-      <c r="D39" s="5">
-        <v>-79.531801829900004</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="C39" s="6">
+        <v>9.0228713051000007</v>
+      </c>
+      <c r="D39" s="7">
+        <v>-79.531801331699995</v>
+      </c>
+      <c r="E39" s="6">
         <v>44</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="9">
         <v>0</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="9">
         <v>3</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="7">
         <v>18</v>
       </c>
     </row>
@@ -9489,110 +9589,136 @@
         <v>-79.531801000000002</v>
       </c>
       <c r="B40" s="3">
-        <v>9.0228699999999993</v>
-      </c>
-      <c r="C40" s="6">
-        <v>9.0228697235500004</v>
-      </c>
-      <c r="D40" s="7">
-        <v>-79.531802786499995</v>
-      </c>
-      <c r="E40" s="6">
+        <v>9.0228710000000003</v>
+      </c>
+      <c r="C40" s="4">
+        <v>9.0228707634600003</v>
+      </c>
+      <c r="D40" s="5">
+        <v>-79.531801829900004</v>
+      </c>
+      <c r="E40" s="4">
         <v>44</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>0</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>3</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>-79.531801999999999</v>
+        <v>-79.531801000000002</v>
       </c>
       <c r="B41" s="3">
-        <v>9.022869</v>
-      </c>
-      <c r="C41" s="4">
-        <v>9.02286922529</v>
-      </c>
-      <c r="D41" s="5">
-        <v>-79.531803244900004</v>
-      </c>
-      <c r="E41" s="4">
-        <v>45</v>
-      </c>
-      <c r="F41" s="8">
+        <v>9.0228699999999993</v>
+      </c>
+      <c r="C41" s="6">
+        <v>9.0228697235500004</v>
+      </c>
+      <c r="D41" s="7">
+        <v>-79.531802786499995</v>
+      </c>
+      <c r="E41" s="6">
+        <v>44</v>
+      </c>
+      <c r="F41" s="9">
         <v>0</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="9">
         <v>3</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>-79.531802999999996</v>
+        <v>-79.531801999999999</v>
       </c>
       <c r="B42" s="3">
         <v>9.022869</v>
       </c>
-      <c r="C42" s="6">
-        <v>9.0228676871300006</v>
-      </c>
-      <c r="D42" s="7">
-        <v>-79.531804659900004</v>
-      </c>
-      <c r="E42" s="6">
+      <c r="C42" s="4">
+        <v>9.02286922529</v>
+      </c>
+      <c r="D42" s="5">
+        <v>-79.531803244900004</v>
+      </c>
+      <c r="E42" s="4">
         <v>45</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <v>0</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <v>3</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>-79.531805000000006</v>
+        <v>-79.531802999999996</v>
       </c>
       <c r="B43" s="3">
-        <v>9.0228680000000008</v>
-      </c>
-      <c r="C43" s="4">
-        <v>9.0228661055800004</v>
-      </c>
-      <c r="D43" s="5">
-        <v>-79.531806114800006</v>
-      </c>
-      <c r="E43" s="4">
+        <v>9.022869</v>
+      </c>
+      <c r="C43" s="6">
+        <v>9.0228676871300006</v>
+      </c>
+      <c r="D43" s="7">
+        <v>-79.531804659900004</v>
+      </c>
+      <c r="E43" s="6">
         <v>45</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="9">
         <v>0</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="9">
         <v>3</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
+        <v>-79.531805000000006</v>
+      </c>
+      <c r="B44" s="3">
+        <v>9.0228680000000008</v>
+      </c>
+      <c r="C44" s="4">
+        <v>9.0228661055800004</v>
+      </c>
+      <c r="D44" s="5">
+        <v>-79.531806114800006</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
+        <v>3</v>
+      </c>
+      <c r="H44" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
         <v>-79.531806000000003</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3">
         <v>9.0228660000000005</v>
       </c>
     </row>
@@ -9604,167 +9730,167 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BE1772-0639-48B8-AF2D-D1E1EF362146}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="C1:D23"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
-        <v>-79.531807000000001</v>
-      </c>
-      <c r="B1" s="3">
-        <v>9.0228699999999993</v>
-      </c>
-      <c r="C1" s="4">
-        <v>9.02288822529</v>
-      </c>
-      <c r="D1" s="5">
-        <v>-79.531775053100006</v>
-      </c>
-      <c r="E1" s="4">
-        <v>45</v>
-      </c>
-      <c r="F1" s="8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5">
-        <v>17</v>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>-79.531811000000005</v>
+        <v>-79.531807000000001</v>
       </c>
       <c r="B2" s="3">
-        <v>9.0228789999999996</v>
-      </c>
-      <c r="C2" s="6">
-        <v>9.0228997494699996</v>
-      </c>
-      <c r="D2" s="7">
-        <v>-79.531778010699995</v>
-      </c>
-      <c r="E2" s="6">
-        <v>44</v>
-      </c>
-      <c r="F2" s="9">
-        <v>2</v>
-      </c>
-      <c r="G2" s="9">
+        <v>9.0228699999999993</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.02288822529</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-79.531775053100006</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
         <v>4</v>
       </c>
-      <c r="H2" s="7">
-        <v>16</v>
+      <c r="H2" s="5">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>-79.531816000000006</v>
+        <v>-79.531811000000005</v>
       </c>
       <c r="B3" s="3">
-        <v>9.0228900000000003</v>
-      </c>
-      <c r="C3" s="4">
-        <v>9.0229114895099993</v>
-      </c>
-      <c r="D3" s="5">
-        <v>-79.531781023600004</v>
-      </c>
-      <c r="E3" s="4">
+        <v>9.0228789999999996</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9.0228997494699996</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-79.531778010699995</v>
+      </c>
+      <c r="E3" s="6">
         <v>44</v>
       </c>
-      <c r="F3" s="8">
-        <v>3</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9">
         <v>4</v>
       </c>
-      <c r="H3" s="5">
-        <v>15</v>
+      <c r="H3" s="7">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>-79.531818000000001</v>
+        <v>-79.531816000000006</v>
       </c>
       <c r="B4" s="3">
-        <v>9.0229020000000002</v>
-      </c>
-      <c r="C4" s="6">
-        <v>9.0229241677599994</v>
-      </c>
-      <c r="D4" s="7">
-        <v>-79.531784277300005</v>
-      </c>
-      <c r="E4" s="6">
-        <v>43</v>
-      </c>
-      <c r="F4" s="9">
+        <v>9.0228900000000003</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.0229114895099993</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-79.531781023600004</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8">
         <v>4</v>
       </c>
-      <c r="G4" s="9">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7">
-        <v>14</v>
+      <c r="H4" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>-79.531819999999996</v>
+        <v>-79.531818000000001</v>
       </c>
       <c r="B5" s="3">
-        <v>9.0229149999999994</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9.0229368460099995</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-79.531787531000006</v>
-      </c>
-      <c r="E5" s="4">
-        <v>42</v>
-      </c>
-      <c r="F5" s="8">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5">
-        <v>13</v>
+        <v>9.0229020000000002</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9.0229241677599994</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-79.531784277300005</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>-79.531822000000005</v>
+        <v>-79.531819999999996</v>
       </c>
       <c r="B6" s="3">
-        <v>9.0229280000000003</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9.0229490427099996</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-79.531790661100004</v>
-      </c>
-      <c r="E6" s="6">
+        <v>9.0229149999999994</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.0229368460099995</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-79.531787531000006</v>
+      </c>
+      <c r="E6" s="4">
         <v>42</v>
       </c>
-      <c r="F6" s="9">
-        <v>6</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>13</v>
       </c>
     </row>
@@ -9773,259 +9899,259 @@
         <v>-79.531822000000005</v>
       </c>
       <c r="B7" s="3">
-        <v>9.0229409999999994</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9.0229628750399993</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-79.531794211000005</v>
-      </c>
-      <c r="E7" s="4">
-        <v>40</v>
-      </c>
-      <c r="F7" s="8">
-        <v>7</v>
-      </c>
-      <c r="G7" s="8">
+        <v>9.0229280000000003</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9.0229490427099996</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-79.531790661100004</v>
+      </c>
+      <c r="E7" s="6">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9">
+        <v>6</v>
+      </c>
+      <c r="G7" s="9">
         <v>3</v>
       </c>
-      <c r="H7" s="5">
-        <v>12</v>
+      <c r="H7" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>-79.531820999999994</v>
+        <v>-79.531822000000005</v>
       </c>
       <c r="B8" s="3">
-        <v>9.0229560000000006</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9.0229762507199993</v>
-      </c>
-      <c r="D8" s="7">
-        <v>-79.531797643700003</v>
-      </c>
-      <c r="E8" s="6">
+        <v>9.0229409999999994</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.0229628750399993</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-79.531794211000005</v>
+      </c>
+      <c r="E8" s="4">
         <v>40</v>
       </c>
-      <c r="F8" s="9">
-        <v>9</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>11</v>
+      <c r="F8" s="8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>-79.531822000000005</v>
+        <v>-79.531820999999994</v>
       </c>
       <c r="B9" s="3">
-        <v>9.0229700000000008</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9.0229889289699994</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-79.531800897400004</v>
-      </c>
-      <c r="E9" s="4">
-        <v>39</v>
-      </c>
-      <c r="F9" s="8">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8">
+        <v>9.0229560000000006</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9.0229762507199993</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-79.531797643700003</v>
+      </c>
+      <c r="E9" s="6">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9">
         <v>2</v>
       </c>
-      <c r="H9" s="5">
-        <v>10</v>
+      <c r="H9" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>-79.531824</v>
+        <v>-79.531822000000005</v>
       </c>
       <c r="B10" s="3">
-        <v>9.022983</v>
-      </c>
-      <c r="C10" s="6">
-        <v>9.0230037244200005</v>
-      </c>
-      <c r="D10" s="7">
-        <v>-79.531804694499996</v>
-      </c>
-      <c r="E10" s="6">
-        <v>38</v>
-      </c>
-      <c r="F10" s="9">
-        <v>11</v>
-      </c>
-      <c r="G10" s="9">
+        <v>9.0229700000000008</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.0229889289699994</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-79.531800897400004</v>
+      </c>
+      <c r="E10" s="4">
+        <v>39</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8">
         <v>2</v>
       </c>
-      <c r="H10" s="7">
-        <v>9</v>
+      <c r="H10" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>-79.531827000000007</v>
+        <v>-79.531824</v>
       </c>
       <c r="B11" s="3">
-        <v>9.0229979999999994</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9.0230173408799992</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-79.531808189000003</v>
-      </c>
-      <c r="E11" s="4">
+        <v>9.022983</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9.0230037244200005</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-79.531804694499996</v>
+      </c>
+      <c r="E11" s="6">
         <v>38</v>
       </c>
-      <c r="F11" s="8">
-        <v>12</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="9">
+        <v>11</v>
+      </c>
+      <c r="G11" s="9">
         <v>2</v>
       </c>
-      <c r="H11" s="5">
-        <v>8</v>
+      <c r="H11" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>-79.531829000000002</v>
+        <v>-79.531827000000007</v>
       </c>
       <c r="B12" s="3">
-        <v>9.0230119999999996</v>
-      </c>
-      <c r="C12" s="6">
-        <v>9.0230309573399996</v>
-      </c>
-      <c r="D12" s="7">
-        <v>-79.531811683499996</v>
-      </c>
-      <c r="E12" s="6">
-        <v>37</v>
-      </c>
-      <c r="F12" s="9">
-        <v>13</v>
-      </c>
-      <c r="G12" s="9">
+        <v>9.0229979999999994</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.0230173408799992</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-79.531808189000003</v>
+      </c>
+      <c r="E12" s="4">
+        <v>38</v>
+      </c>
+      <c r="F12" s="8">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8">
         <v>2</v>
       </c>
-      <c r="H12" s="7">
-        <v>7</v>
+      <c r="H12" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>-79.531830999999997</v>
+        <v>-79.531829000000002</v>
       </c>
       <c r="B13" s="3">
-        <v>9.0230259999999998</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.02304387637</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-79.531814999000005</v>
-      </c>
-      <c r="E13" s="4">
-        <v>36</v>
-      </c>
-      <c r="F13" s="8">
-        <v>15</v>
-      </c>
-      <c r="G13" s="8">
+        <v>9.0230119999999996</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9.0230309573399996</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-79.531811683499996</v>
+      </c>
+      <c r="E13" s="6">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9">
+        <v>13</v>
+      </c>
+      <c r="G13" s="9">
         <v>2</v>
       </c>
-      <c r="H13" s="5">
-        <v>6</v>
+      <c r="H13" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>-79.531834000000003</v>
+        <v>-79.531830999999997</v>
       </c>
       <c r="B14" s="3">
-        <v>9.0230390000000007</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9.0230560979700005</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-79.531818135500004</v>
-      </c>
-      <c r="E14" s="6">
+        <v>9.0230259999999998</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.02304387637</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-79.531814999000005</v>
+      </c>
+      <c r="E14" s="4">
         <v>36</v>
       </c>
-      <c r="F14" s="9">
-        <v>16</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="8">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8">
         <v>2</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
+      <c r="H14" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>-79.531837999999993</v>
+        <v>-79.531834000000003</v>
       </c>
       <c r="B15" s="3">
-        <v>9.0230510000000006</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.0230687762200006</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-79.531821389200005</v>
-      </c>
-      <c r="E15" s="4">
-        <v>35</v>
-      </c>
-      <c r="F15" s="8">
-        <v>17</v>
-      </c>
-      <c r="G15" s="8">
+        <v>9.0230390000000007</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.0230560979700005</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-79.531818135500004</v>
+      </c>
+      <c r="E15" s="6">
+        <v>36</v>
+      </c>
+      <c r="F15" s="9">
+        <v>16</v>
+      </c>
+      <c r="G15" s="9">
         <v>2</v>
       </c>
-      <c r="H15" s="5">
-        <v>4</v>
+      <c r="H15" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>-79.531840000000003</v>
+        <v>-79.531837999999993</v>
       </c>
       <c r="B16" s="3">
-        <v>9.0230639999999998</v>
-      </c>
-      <c r="C16" s="6">
-        <v>9.0230809729200008</v>
-      </c>
-      <c r="D16" s="7">
-        <v>-79.531824519300002</v>
-      </c>
-      <c r="E16" s="6">
-        <v>34</v>
-      </c>
-      <c r="F16" s="9">
-        <v>18</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
+        <v>9.0230510000000006</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.0230687762200006</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-79.531821389200005</v>
+      </c>
+      <c r="E16" s="4">
+        <v>35</v>
+      </c>
+      <c r="F16" s="8">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10033,51 +10159,51 @@
         <v>-79.531840000000003</v>
       </c>
       <c r="B17" s="3">
-        <v>9.0230770000000007</v>
-      </c>
-      <c r="C17" s="4">
-        <v>9.0230943486000008</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-79.531827952</v>
-      </c>
-      <c r="E17" s="4">
-        <v>33</v>
-      </c>
-      <c r="F17" s="8">
-        <v>19</v>
-      </c>
-      <c r="G17" s="8">
+        <v>9.0230639999999998</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9.0230809729200008</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-79.531824519300002</v>
+      </c>
+      <c r="E17" s="6">
+        <v>34</v>
+      </c>
+      <c r="F17" s="9">
+        <v>18</v>
+      </c>
+      <c r="G17" s="9">
         <v>1</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>-79.531841</v>
+        <v>-79.531840000000003</v>
       </c>
       <c r="B18" s="3">
-        <v>9.0230910000000009</v>
-      </c>
-      <c r="C18" s="6">
-        <v>9.0231093599199994</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-79.531831804399999</v>
-      </c>
-      <c r="E18" s="6">
-        <v>32</v>
-      </c>
-      <c r="F18" s="9">
-        <v>20</v>
-      </c>
-      <c r="G18" s="9">
+        <v>9.0230770000000007</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.0230943486000008</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-79.531827952</v>
+      </c>
+      <c r="E18" s="4">
+        <v>33</v>
+      </c>
+      <c r="F18" s="8">
+        <v>19</v>
+      </c>
+      <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H18" s="7">
-        <v>2</v>
+      <c r="H18" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10085,136 +10211,162 @@
         <v>-79.531841</v>
       </c>
       <c r="B19" s="3">
-        <v>9.0231069999999995</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9.0231236738099998</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-79.531835477900003</v>
-      </c>
-      <c r="E19" s="4">
+        <v>9.0230910000000009</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9.0231093599199994</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-79.531831804399999</v>
+      </c>
+      <c r="E19" s="6">
         <v>32</v>
       </c>
-      <c r="F19" s="8">
-        <v>22</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="F19" s="9">
+        <v>20</v>
+      </c>
+      <c r="G19" s="9">
         <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>-79.531841999999997</v>
+        <v>-79.531841</v>
       </c>
       <c r="B20" s="3">
-        <v>9.0231220000000008</v>
-      </c>
-      <c r="C20" s="6">
-        <v>9.0231370494899998</v>
-      </c>
-      <c r="D20" s="7">
-        <v>-79.531838910600001</v>
-      </c>
-      <c r="E20" s="6">
-        <v>31</v>
-      </c>
-      <c r="F20" s="9">
-        <v>23</v>
-      </c>
-      <c r="G20" s="9">
+        <v>9.0231069999999995</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.0231236738099998</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-79.531835477900003</v>
+      </c>
+      <c r="E20" s="4">
+        <v>32</v>
+      </c>
+      <c r="F20" s="8">
+        <v>22</v>
+      </c>
+      <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
+      <c r="H20" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>-79.531842999999995</v>
+        <v>-79.531841999999997</v>
       </c>
       <c r="B21" s="3">
-        <v>9.0231359999999992</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9.0231497277399999</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-79.531842164300002</v>
-      </c>
-      <c r="E21" s="4">
-        <v>30</v>
-      </c>
-      <c r="F21" s="8">
-        <v>24</v>
-      </c>
-      <c r="G21" s="8">
+        <v>9.0231220000000008</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9.0231370494899998</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-79.531838910600001</v>
+      </c>
+      <c r="E21" s="6">
+        <v>31</v>
+      </c>
+      <c r="F21" s="9">
+        <v>23</v>
+      </c>
+      <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>-79.531845000000004</v>
+        <v>-79.531842999999995</v>
       </c>
       <c r="B22" s="3">
-        <v>9.0231490000000001</v>
-      </c>
-      <c r="C22" s="6">
-        <v>9.02316170856</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-79.531845239000006</v>
-      </c>
-      <c r="E22" s="6">
+        <v>9.0231359999999992</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9.0231497277399999</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-79.531842164300002</v>
+      </c>
+      <c r="E22" s="4">
         <v>30</v>
       </c>
-      <c r="F22" s="9">
-        <v>25</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="F22" s="8">
+        <v>24</v>
+      </c>
+      <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
+      <c r="H22" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>-79.531847999999997</v>
+        <v>-79.531845000000004</v>
       </c>
       <c r="B23" s="3">
-        <v>9.023161</v>
-      </c>
-      <c r="C23" s="4">
-        <v>9.0231727511800006</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-79.531848073000006</v>
-      </c>
-      <c r="E23" s="4">
-        <v>29</v>
-      </c>
-      <c r="F23" s="8">
-        <v>26</v>
-      </c>
-      <c r="G23" s="8">
+        <v>9.0231490000000001</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9.02316170856</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-79.531845239000006</v>
+      </c>
+      <c r="E23" s="6">
+        <v>30</v>
+      </c>
+      <c r="F23" s="9">
+        <v>25</v>
+      </c>
+      <c r="G23" s="9">
         <v>0</v>
       </c>
-      <c r="H23" s="5">
-        <v>2</v>
+      <c r="H23" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
+        <v>-79.531847999999997</v>
+      </c>
+      <c r="B24" s="3">
+        <v>9.023161</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9.0231727511800006</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-79.531848073000006</v>
+      </c>
+      <c r="E24" s="4">
+        <v>29</v>
+      </c>
+      <c r="F24" s="8">
+        <v>26</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>-79.531851000000003</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>9.0231720000000006</v>
       </c>
     </row>
@@ -10225,38 +10377,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772C66AB-D584-4067-B6B4-7F5C05D896F5}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
-        <v>-79.531851000000003</v>
-      </c>
-      <c r="B1" s="3">
-        <v>9.0231809999999992</v>
-      </c>
-      <c r="C1" s="4">
-        <v>9.0231711135899992</v>
-      </c>
-      <c r="D1" s="5">
-        <v>-79.531828143300004</v>
-      </c>
-      <c r="E1" s="4">
-        <v>28</v>
-      </c>
-      <c r="F1" s="8">
-        <v>27</v>
-      </c>
-      <c r="G1" s="8">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10264,50 +10416,50 @@
         <v>-79.531851000000003</v>
       </c>
       <c r="B2" s="3">
-        <v>9.0231840000000005</v>
-      </c>
-      <c r="C2" s="6">
-        <v>9.0231715414</v>
-      </c>
-      <c r="D2" s="7">
-        <v>-79.531827902100005</v>
-      </c>
-      <c r="E2" s="6">
+        <v>9.0231809999999992</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.0231711135899992</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-79.531828143300004</v>
+      </c>
+      <c r="E2" s="4">
         <v>28</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>27</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>0</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>-79.531850000000006</v>
+        <v>-79.531851000000003</v>
       </c>
       <c r="B3" s="3">
         <v>9.0231840000000005</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>9.0231715414</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>-79.531827902100005</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>28</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>27</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>2</v>
       </c>
     </row>
@@ -10318,22 +10470,22 @@
       <c r="B4" s="3">
         <v>9.0231840000000005</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>9.0231715414</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>-79.531827902100005</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>28</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>27</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>2</v>
       </c>
     </row>
@@ -10344,101 +10496,101 @@
       <c r="B5" s="3">
         <v>9.0231840000000005</v>
       </c>
-      <c r="C5" s="4">
-        <v>9.0231718724000007</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-79.5318277155</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="6">
+        <v>9.0231715414</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-79.531827902100005</v>
+      </c>
+      <c r="E5" s="6">
         <v>28</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <v>27</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>0</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>-79.531851000000003</v>
+        <v>-79.531850000000006</v>
       </c>
       <c r="B6" s="3">
-        <v>9.0231849999999998</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9.0231722033999997</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-79.531827528899996</v>
-      </c>
-      <c r="E6" s="6">
+        <v>9.0231840000000005</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.0231718724000007</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-79.5318277155</v>
+      </c>
+      <c r="E6" s="4">
         <v>28</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>27</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="7">
-        <v>3</v>
+      <c r="H6" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>-79.531852000000001</v>
+        <v>-79.531851000000003</v>
       </c>
       <c r="B7" s="3">
-        <v>9.0231860000000008</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9.0231718724000007</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-79.5318277155</v>
-      </c>
-      <c r="E7" s="4">
+        <v>9.0231849999999998</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9.0231722033999997</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-79.531827528899996</v>
+      </c>
+      <c r="E7" s="6">
         <v>28</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <v>27</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>0</v>
       </c>
-      <c r="H7" s="5">
-        <v>2</v>
+      <c r="H7" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>-79.531851000000003</v>
+        <v>-79.531852000000001</v>
       </c>
       <c r="B8" s="3">
-        <v>9.0231849999999998</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9.0231733900099993</v>
-      </c>
-      <c r="D8" s="7">
-        <v>-79.531826859899994</v>
-      </c>
-      <c r="E8" s="6">
+        <v>9.0231860000000008</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.0231718724000007</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-79.5318277155</v>
+      </c>
+      <c r="E8" s="4">
         <v>28</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>27</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
+      <c r="H8" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10446,552 +10598,578 @@
         <v>-79.531851000000003</v>
       </c>
       <c r="B9" s="3">
-        <v>9.0231870000000001</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9.0231792262700008</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-79.531823569400004</v>
-      </c>
-      <c r="E9" s="4">
+        <v>9.0231849999999998</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9.0231733900099993</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-79.531826859899994</v>
+      </c>
+      <c r="E9" s="6">
+        <v>28</v>
+      </c>
+      <c r="F9" s="9">
         <v>27</v>
       </c>
-      <c r="F9" s="8">
-        <v>27</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <v>0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>-79.531847999999997</v>
+        <v>-79.531851000000003</v>
       </c>
       <c r="B10" s="3">
-        <v>9.0231929999999991</v>
-      </c>
-      <c r="C10" s="6">
-        <v>9.0231891469899992</v>
-      </c>
-      <c r="D10" s="7">
-        <v>-79.531817976200003</v>
-      </c>
-      <c r="E10" s="6">
-        <v>26</v>
-      </c>
-      <c r="F10" s="9">
+        <v>9.0231870000000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.0231792262700008</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-79.531823569400004</v>
+      </c>
+      <c r="E10" s="4">
         <v>27</v>
       </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
+      <c r="F10" s="8">
+        <v>27</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>-79.531839000000005</v>
+        <v>-79.531847999999997</v>
       </c>
       <c r="B11" s="3">
-        <v>9.0232010000000002</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9.02319982651</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-79.531811955199998</v>
-      </c>
-      <c r="E11" s="4">
-        <v>25</v>
-      </c>
-      <c r="F11" s="8">
+        <v>9.0231929999999991</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9.0231891469899992</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-79.531817976200003</v>
+      </c>
+      <c r="E11" s="6">
+        <v>26</v>
+      </c>
+      <c r="F11" s="9">
         <v>27</v>
       </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>-79.531829999999999</v>
+        <v>-79.531839000000005</v>
       </c>
       <c r="B12" s="3">
-        <v>9.0232100000000006</v>
-      </c>
-      <c r="C12" s="6">
-        <v>9.0232105060300007</v>
-      </c>
-      <c r="D12" s="7">
-        <v>-79.531805934199994</v>
-      </c>
-      <c r="E12" s="6">
-        <v>23</v>
-      </c>
-      <c r="F12" s="9">
+        <v>9.0232010000000002</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.02319982651</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-79.531811955199998</v>
+      </c>
+      <c r="E12" s="4">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8">
         <v>27</v>
       </c>
-      <c r="G12" s="9">
-        <v>4</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>-79.531820999999994</v>
+        <v>-79.531829999999999</v>
       </c>
       <c r="B13" s="3">
-        <v>9.0232189999999992</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.0232230341699999</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-79.531798870900005</v>
-      </c>
-      <c r="E13" s="4">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8">
+        <v>9.0232100000000006</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9.0232105060300007</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-79.531805934199994</v>
+      </c>
+      <c r="E13" s="6">
+        <v>23</v>
+      </c>
+      <c r="F13" s="9">
         <v>27</v>
       </c>
-      <c r="G13" s="8">
-        <v>5</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="9">
+        <v>4</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>-79.531813</v>
+        <v>-79.531820999999994</v>
       </c>
       <c r="B14" s="3">
-        <v>9.0232309999999991</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9.0232347066899994</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-79.5317922901</v>
-      </c>
-      <c r="E14" s="6">
-        <v>21</v>
-      </c>
-      <c r="F14" s="9">
-        <v>28</v>
-      </c>
-      <c r="G14" s="9">
-        <v>6</v>
-      </c>
-      <c r="H14" s="7">
+        <v>9.0232189999999992</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.0232230341699999</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-79.531798870900005</v>
+      </c>
+      <c r="E14" s="4">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8">
+        <v>27</v>
+      </c>
+      <c r="G14" s="8">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>-79.531807000000001</v>
+        <v>-79.531813</v>
       </c>
       <c r="B15" s="3">
-        <v>9.0232430000000008</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.0232460482000008</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-79.531785895799999</v>
-      </c>
-      <c r="E15" s="4">
-        <v>19</v>
-      </c>
-      <c r="F15" s="8">
+        <v>9.0232309999999991</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.0232347066899994</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-79.5317922901</v>
+      </c>
+      <c r="E15" s="6">
+        <v>21</v>
+      </c>
+      <c r="F15" s="9">
         <v>28</v>
       </c>
-      <c r="G15" s="8">
-        <v>7</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="9">
+        <v>6</v>
+      </c>
+      <c r="H15" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>-79.531800000000004</v>
+        <v>-79.531807000000001</v>
       </c>
       <c r="B16" s="3">
-        <v>9.0232539999999997</v>
-      </c>
-      <c r="C16" s="6">
-        <v>9.0232566309200006</v>
-      </c>
-      <c r="D16" s="7">
-        <v>-79.531779929400003</v>
-      </c>
-      <c r="E16" s="6">
-        <v>18</v>
-      </c>
-      <c r="F16" s="9">
+        <v>9.0232430000000008</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.0232460482000008</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-79.531785895799999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>19</v>
+      </c>
+      <c r="F16" s="8">
         <v>28</v>
       </c>
-      <c r="G16" s="9">
-        <v>8</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G16" s="8">
+        <v>7</v>
+      </c>
+      <c r="H16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>-79.531792999999993</v>
+        <v>-79.531800000000004</v>
       </c>
       <c r="B17" s="3">
-        <v>9.0232639999999993</v>
-      </c>
-      <c r="C17" s="4">
-        <v>9.0232675446300004</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-79.531773776400001</v>
-      </c>
-      <c r="E17" s="4">
-        <v>17</v>
-      </c>
-      <c r="F17" s="8">
-        <v>29</v>
-      </c>
-      <c r="G17" s="8">
-        <v>9</v>
-      </c>
-      <c r="H17" s="5">
+        <v>9.0232539999999997</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9.0232566309200006</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-79.531779929400003</v>
+      </c>
+      <c r="E17" s="6">
+        <v>18</v>
+      </c>
+      <c r="F17" s="9">
+        <v>28</v>
+      </c>
+      <c r="G17" s="9">
+        <v>8</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>-79.531786999999994</v>
+        <v>-79.531792999999993</v>
       </c>
       <c r="B18" s="3">
-        <v>9.0232749999999999</v>
-      </c>
-      <c r="C18" s="6">
-        <v>9.0232785551500001</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-79.531767568700005</v>
-      </c>
-      <c r="E18" s="6">
-        <v>15</v>
-      </c>
-      <c r="F18" s="9">
+        <v>9.0232639999999993</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.0232675446300004</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-79.531773776400001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8">
         <v>29</v>
       </c>
-      <c r="G18" s="9">
-        <v>10</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="8">
+        <v>9</v>
+      </c>
+      <c r="H18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>-79.531779</v>
+        <v>-79.531786999999994</v>
       </c>
       <c r="B19" s="3">
-        <v>9.0232849999999996</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9.0232911800900002</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-79.531760450899995</v>
-      </c>
-      <c r="E19" s="4">
-        <v>14</v>
-      </c>
-      <c r="F19" s="8">
+        <v>9.0232749999999999</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9.0232785551500001</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-79.531767568700005</v>
+      </c>
+      <c r="E19" s="6">
+        <v>15</v>
+      </c>
+      <c r="F19" s="9">
         <v>29</v>
       </c>
-      <c r="G19" s="8">
-        <v>11</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G19" s="9">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>-79.531768999999997</v>
+        <v>-79.531779</v>
       </c>
       <c r="B20" s="3">
-        <v>9.0232960000000002</v>
-      </c>
-      <c r="C20" s="6">
-        <v>9.0233041360400001</v>
-      </c>
-      <c r="D20" s="7">
-        <v>-79.531753146499995</v>
-      </c>
-      <c r="E20" s="6">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9">
+        <v>9.0232849999999996</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.0232911800900002</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-79.531760450899995</v>
+      </c>
+      <c r="E20" s="4">
+        <v>14</v>
+      </c>
+      <c r="F20" s="8">
         <v>29</v>
       </c>
-      <c r="G20" s="9">
-        <v>13</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
+      <c r="G20" s="8">
+        <v>11</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>-79.531760000000006</v>
+        <v>-79.531768999999997</v>
       </c>
       <c r="B21" s="3">
-        <v>9.0233080000000001</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9.0233166641700002</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-79.531746083200005</v>
-      </c>
-      <c r="E21" s="4">
-        <v>11</v>
-      </c>
-      <c r="F21" s="8">
+        <v>9.0232960000000002</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9.0233041360400001</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-79.531753146499995</v>
+      </c>
+      <c r="E21" s="6">
+        <v>12</v>
+      </c>
+      <c r="F21" s="9">
         <v>29</v>
       </c>
-      <c r="G21" s="8">
-        <v>14</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="G21" s="9">
+        <v>13</v>
+      </c>
+      <c r="H21" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>-79.531751999999997</v>
+        <v>-79.531760000000006</v>
       </c>
       <c r="B22" s="3">
-        <v>9.02332</v>
-      </c>
-      <c r="C22" s="6">
-        <v>9.0233295232999993</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-79.531738833399999</v>
-      </c>
-      <c r="E22" s="6">
-        <v>9</v>
-      </c>
-      <c r="F22" s="9">
+        <v>9.0233080000000001</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9.0233166641700002</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-79.531746083200005</v>
+      </c>
+      <c r="E22" s="4">
+        <v>11</v>
+      </c>
+      <c r="F22" s="8">
         <v>29</v>
       </c>
-      <c r="G22" s="9">
-        <v>15</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="G22" s="8">
+        <v>14</v>
+      </c>
+      <c r="H22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>-79.531745000000001</v>
+        <v>-79.531751999999997</v>
       </c>
       <c r="B23" s="3">
-        <v>9.0233329999999992</v>
-      </c>
-      <c r="C23" s="4">
-        <v>9.0233415268199995</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-79.531732065900002</v>
-      </c>
-      <c r="E23" s="4">
-        <v>8</v>
-      </c>
-      <c r="F23" s="8">
-        <v>30</v>
-      </c>
-      <c r="G23" s="8">
-        <v>16</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
+        <v>9.02332</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9.0233295232999993</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-79.531738833399999</v>
+      </c>
+      <c r="E23" s="6">
+        <v>9</v>
+      </c>
+      <c r="F23" s="9">
+        <v>29</v>
+      </c>
+      <c r="G23" s="9">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>-79.531739999999999</v>
+        <v>-79.531745000000001</v>
       </c>
       <c r="B24" s="3">
-        <v>9.0233460000000001</v>
-      </c>
-      <c r="C24" s="6">
-        <v>9.0233535303300005</v>
-      </c>
-      <c r="D24" s="7">
-        <v>-79.531725298400005</v>
-      </c>
-      <c r="E24" s="6">
-        <v>7</v>
-      </c>
-      <c r="F24" s="9">
-        <v>31</v>
-      </c>
-      <c r="G24" s="9">
-        <v>17</v>
-      </c>
-      <c r="H24" s="7">
+        <v>9.0233329999999992</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9.0233415268199995</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-79.531732065900002</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8</v>
+      </c>
+      <c r="F24" s="8">
+        <v>30</v>
+      </c>
+      <c r="G24" s="8">
+        <v>16</v>
+      </c>
+      <c r="H24" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>-79.531734999999998</v>
+        <v>-79.531739999999999</v>
       </c>
       <c r="B25" s="3">
-        <v>9.0233589999999992</v>
-      </c>
-      <c r="C25" s="4">
-        <v>9.02336520285</v>
-      </c>
-      <c r="D25" s="5">
-        <v>-79.531718717499999</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="8">
+        <v>9.0233460000000001</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9.0233535303300005</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-79.531725298400005</v>
+      </c>
+      <c r="E25" s="6">
+        <v>7</v>
+      </c>
+      <c r="F25" s="9">
         <v>31</v>
       </c>
-      <c r="G25" s="8">
-        <v>18</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="G25" s="9">
+        <v>17</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>-79.531728999999999</v>
+        <v>-79.531734999999998</v>
       </c>
       <c r="B26" s="3">
-        <v>9.0233709999999991</v>
-      </c>
-      <c r="C26" s="6">
-        <v>9.0233761165599997</v>
-      </c>
-      <c r="D26" s="7">
-        <v>-79.531712564499998</v>
-      </c>
-      <c r="E26" s="6">
-        <v>4</v>
-      </c>
-      <c r="F26" s="9">
+        <v>9.0233589999999992</v>
+      </c>
+      <c r="C26" s="4">
+        <v>9.02336520285</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-79.531718717499999</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="8">
         <v>31</v>
       </c>
-      <c r="G26" s="9">
-        <v>19</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="G26" s="8">
+        <v>18</v>
+      </c>
+      <c r="H26" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>-79.531723</v>
+        <v>-79.531728999999999</v>
       </c>
       <c r="B27" s="3">
-        <v>9.0233819999999998</v>
-      </c>
-      <c r="C27" s="4">
-        <v>9.0233878858899992</v>
-      </c>
-      <c r="D27" s="5">
-        <v>-79.531705929099999</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3</v>
-      </c>
-      <c r="F27" s="8">
+        <v>9.0233709999999991</v>
+      </c>
+      <c r="C27" s="6">
+        <v>9.0233761165599997</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-79.531712564499998</v>
+      </c>
+      <c r="E27" s="6">
+        <v>4</v>
+      </c>
+      <c r="F27" s="9">
         <v>31</v>
       </c>
-      <c r="G27" s="8">
-        <v>20</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G27" s="9">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>-79.531715000000005</v>
+        <v>-79.531723</v>
       </c>
       <c r="B28" s="3">
-        <v>9.0233930000000004</v>
-      </c>
-      <c r="C28" s="6">
-        <v>9.0233997520300004</v>
-      </c>
-      <c r="D28" s="7">
-        <v>-79.531699239000005</v>
-      </c>
-      <c r="E28" s="6">
+        <v>9.0233819999999998</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9.0233878858899992</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-79.531705929099999</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
+      <c r="F28" s="8">
+        <v>31</v>
+      </c>
+      <c r="G28" s="8">
+        <v>20</v>
+      </c>
+      <c r="H28" s="5">
         <v>1</v>
-      </c>
-      <c r="F28" s="9">
-        <v>31</v>
-      </c>
-      <c r="G28" s="9">
-        <v>21</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>-79.531705000000002</v>
+        <v>-79.531715000000005</v>
       </c>
       <c r="B29" s="3">
-        <v>9.0234030000000001</v>
-      </c>
-      <c r="C29" s="4">
-        <v>9.0234100037400005</v>
-      </c>
-      <c r="D29" s="5">
-        <v>-79.5316934592</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
+        <v>9.0233930000000004</v>
+      </c>
+      <c r="C29" s="6">
+        <v>9.0233997520300004</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-79.531699239000005</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
         <v>31</v>
       </c>
-      <c r="G29" s="8">
-        <v>22</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="G29" s="9">
+        <v>21</v>
+      </c>
+      <c r="H29" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
+        <v>-79.531705000000002</v>
+      </c>
+      <c r="B30" s="3">
+        <v>9.0234030000000001</v>
+      </c>
+      <c r="C30" s="4">
+        <v>9.0234100037400005</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-79.5316934592</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>31</v>
+      </c>
+      <c r="G30" s="8">
+        <v>22</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>-79.531696999999994</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>9.0234120000000004</v>
       </c>
     </row>
